--- a/distribution_nw_in_fs_1.xlsx
+++ b/distribution_nw_in_fs_1.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/shicheng_li_vanderbilt_edu/Documents/Desktop/nitrate_and_water_in_csd/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_163A013993E38929448606334735DA2E1452D267" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27B80E8-D710-4499-8AF4-84F03FDB18DD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nitrate" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>Coordination Number</t>
   </si>
@@ -65,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +135,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -207,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,9 +256,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,14 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,286 +491,744 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>68</v>
+      </c>
+      <c r="F2">
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <v>131</v>
+      </c>
+      <c r="H2">
+        <v>129</v>
+      </c>
+      <c r="I2">
+        <v>118</v>
+      </c>
+      <c r="J2">
+        <v>148</v>
+      </c>
+      <c r="K2">
+        <v>42</v>
+      </c>
+      <c r="L2">
+        <v>46</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>37</v>
+      </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>53</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>101</v>
+      </c>
+      <c r="H3">
+        <v>104</v>
+      </c>
+      <c r="I3">
+        <v>97</v>
+      </c>
+      <c r="J3">
+        <v>144</v>
+      </c>
+      <c r="K3">
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <v>66</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>59</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>201</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>127</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>133</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>217</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>114</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>258</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>185</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>165</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>164</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>56</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>103</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>29</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <v>82</v>
       </c>
-      <c r="O2">
+      <c r="O4">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>28</v>
       </c>
-      <c r="C3">
+      <c r="C7">
         <v>39</v>
       </c>
-      <c r="D3">
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="E3">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H3">
+      <c r="H7">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>81</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>83</v>
-      </c>
-      <c r="F4">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>101</v>
-      </c>
-      <c r="H4">
-        <v>104</v>
-      </c>
-      <c r="I4">
-        <v>97</v>
-      </c>
-      <c r="J4">
-        <v>144</v>
-      </c>
-      <c r="K4">
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <v>66</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>59</v>
-      </c>
-      <c r="O4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>80</v>
-      </c>
-      <c r="C5">
-        <v>53</v>
-      </c>
-      <c r="D5">
-        <v>66</v>
-      </c>
-      <c r="E5">
-        <v>68</v>
-      </c>
-      <c r="F5">
-        <v>66</v>
-      </c>
-      <c r="G5">
-        <v>131</v>
-      </c>
-      <c r="H5">
-        <v>129</v>
-      </c>
-      <c r="I5">
-        <v>118</v>
-      </c>
-      <c r="J5">
-        <v>148</v>
-      </c>
-      <c r="K5">
-        <v>42</v>
-      </c>
-      <c r="L5">
-        <v>46</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>37</v>
-      </c>
-      <c r="O5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>11</v>
-      </c>
       <c r="K7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>10</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>133</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>217</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="D17">
+        <v>258</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>129</v>
+      </c>
+      <c r="C18">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>185</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+      <c r="C19">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>165</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>148</v>
+      </c>
+      <c r="C20">
+        <v>144</v>
+      </c>
+      <c r="D20">
+        <v>164</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>103</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>82</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O8">
+    <sortCondition ref="A1:A8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:K28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,289 +1275,289 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>473</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>388</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>311</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="L2">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="O2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="F3">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="G3">
-        <v>473</v>
+        <v>332</v>
       </c>
       <c r="H3">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="I3">
-        <v>388</v>
+        <v>264</v>
       </c>
       <c r="J3">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="K3">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="L3">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N3">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="O3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="C4">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>112</v>
+      </c>
+      <c r="G4">
+        <v>170</v>
+      </c>
+      <c r="H4">
         <v>146</v>
       </c>
-      <c r="D4">
-        <v>154</v>
-      </c>
-      <c r="E4">
-        <v>229</v>
-      </c>
-      <c r="F4">
-        <v>176</v>
-      </c>
-      <c r="G4">
-        <v>332</v>
-      </c>
-      <c r="H4">
-        <v>238</v>
-      </c>
       <c r="I4">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="J4">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="L4">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N4">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="O4">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>89</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>102</v>
+      </c>
+      <c r="I5">
+        <v>86</v>
+      </c>
+      <c r="J5">
+        <v>95</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+      <c r="L5">
+        <v>64</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>34</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>38</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>27</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>38</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>47</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>49</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>40</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>36</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>56</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>28</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>17</v>
       </c>
-      <c r="O5">
+      <c r="O6">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>96</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>113</v>
-      </c>
-      <c r="F6">
-        <v>112</v>
-      </c>
-      <c r="G6">
-        <v>170</v>
-      </c>
-      <c r="H6">
-        <v>146</v>
-      </c>
-      <c r="I6">
-        <v>135</v>
-      </c>
-      <c r="J6">
-        <v>112</v>
-      </c>
-      <c r="K6">
-        <v>47</v>
-      </c>
-      <c r="L6">
-        <v>70</v>
-      </c>
-      <c r="M6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>41</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
         <v>23</v>
       </c>
-      <c r="N6">
-        <v>41</v>
-      </c>
-      <c r="O6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>89</v>
-      </c>
-      <c r="C7">
-        <v>34</v>
-      </c>
-      <c r="D7">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>77</v>
-      </c>
-      <c r="F7">
-        <v>62</v>
-      </c>
-      <c r="G7">
-        <v>110</v>
-      </c>
-      <c r="H7">
-        <v>102</v>
-      </c>
-      <c r="I7">
-        <v>86</v>
-      </c>
-      <c r="J7">
-        <v>95</v>
-      </c>
-      <c r="K7">
-        <v>44</v>
-      </c>
-      <c r="L7">
-        <v>64</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <v>34</v>
-      </c>
       <c r="O7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1125,101 +1604,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+      <c r="K9">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>17</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>14</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>37</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>28</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>34</v>
-      </c>
-      <c r="H10">
-        <v>41</v>
-      </c>
-      <c r="I10">
-        <v>36</v>
-      </c>
-      <c r="J10">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>18</v>
-      </c>
-      <c r="L10">
-        <v>24</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10">
-        <v>23</v>
-      </c>
       <c r="O10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1227,7 +1706,496 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>279</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>89</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>37</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>160</v>
+      </c>
+      <c r="D16">
+        <v>146</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>24</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>179</v>
+      </c>
+      <c r="D17">
+        <v>154</v>
+      </c>
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="F17">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+      <c r="D18">
+        <v>229</v>
+      </c>
+      <c r="E18">
+        <v>113</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
+      <c r="H18">
+        <v>28</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>219</v>
+      </c>
+      <c r="D19">
+        <v>176</v>
+      </c>
+      <c r="E19">
+        <v>112</v>
+      </c>
+      <c r="F19">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>473</v>
+      </c>
+      <c r="D20">
+        <v>332</v>
+      </c>
+      <c r="E20">
+        <v>170</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20">
+        <v>49</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>381</v>
+      </c>
+      <c r="D21">
+        <v>238</v>
+      </c>
+      <c r="E21">
+        <v>146</v>
+      </c>
+      <c r="F21">
+        <v>102</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>24</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>388</v>
+      </c>
+      <c r="D22">
+        <v>264</v>
+      </c>
+      <c r="E22">
+        <v>135</v>
+      </c>
+      <c r="F22">
+        <v>86</v>
+      </c>
+      <c r="G22">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>36</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>14</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>311</v>
+      </c>
+      <c r="D23">
+        <v>211</v>
+      </c>
+      <c r="E23">
+        <v>112</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>56</v>
+      </c>
+      <c r="H23">
+        <v>28</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>117</v>
+      </c>
+      <c r="D24">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>173</v>
+      </c>
+      <c r="D25">
+        <v>132</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>151</v>
+      </c>
+      <c r="D27">
+        <v>96</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>34</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>28</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>